--- a/public/sample_uploads/fund_ratios/investors.xlsx
+++ b/public/sample_uploads/fund_ratios/investors.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0b9b322f8db0eee2/Desktop/Ausang/AltConnects/Demo Inc Formats/Demo fund info/Ratios fund/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0f10f76f200b1328/Desktop/ratios auto test/bulk files/fund 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{28FD90CB-8C34-4CA9-9230-AE4DDCAE8947}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="61" documentId="13_ncr:1_{7BEEC299-B834-4AF4-9714-BDE0CFD030C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E9A8579B-A078-4B1A-81B2-69816545AF31}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Investors" sheetId="1" r:id="rId1"/>
@@ -202,7 +202,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
   <si>
     <t>City</t>
   </si>
@@ -222,35 +222,122 @@
     <t>Category *</t>
   </si>
   <si>
-    <t>AC</t>
-  </si>
-  <si>
-    <t>Investor 37</t>
-  </si>
-  <si>
-    <t>emp1@ac.com</t>
-  </si>
-  <si>
-    <t>emp1@investor37.com</t>
+    <t>TSTF1</t>
+  </si>
+  <si>
+    <t>tstf11@emp.com</t>
+  </si>
+  <si>
+    <t>tstf12@emp.com</t>
   </si>
   <si>
     <t>LP</t>
   </si>
   <si>
-    <t>Ego Pvt Ltd</t>
-  </si>
-  <si>
-    <t>emp1@egopvtltd.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Portfolio Company </t>
+    <t>tstfportco11@emp.com</t>
+  </si>
+  <si>
+    <t>tstfportco12@emp.com</t>
+  </si>
+  <si>
+    <t>Portfolio Company</t>
+  </si>
+  <si>
+    <t>TSTFU1111D</t>
+  </si>
+  <si>
+    <t>TSTFU1212D</t>
+  </si>
+  <si>
+    <t>TSTFP1111D</t>
+  </si>
+  <si>
+    <t>TSTFP1212D</t>
+  </si>
+  <si>
+    <t>Fintech, Deal lead 1</t>
+  </si>
+  <si>
+    <t>Fintech, Deal lead 2</t>
+  </si>
+  <si>
+    <t>TSTF2</t>
+  </si>
+  <si>
+    <t>TSTF1 Port Co 1</t>
+  </si>
+  <si>
+    <t>TSTF1 Port Co 2</t>
+  </si>
+  <si>
+    <t>TSTF7</t>
+  </si>
+  <si>
+    <t>TSTF8</t>
+  </si>
+  <si>
+    <t>TSTF9</t>
+  </si>
+  <si>
+    <t>TSTF10</t>
+  </si>
+  <si>
+    <t>TSTF11</t>
+  </si>
+  <si>
+    <t>TSTF12</t>
+  </si>
+  <si>
+    <t>TSTF13</t>
+  </si>
+  <si>
+    <t>TSTFU1112D</t>
+  </si>
+  <si>
+    <t>TSTFU1113D</t>
+  </si>
+  <si>
+    <t>TSTFU1114D</t>
+  </si>
+  <si>
+    <t>TSTFU1115D</t>
+  </si>
+  <si>
+    <t>TSTFU1116D</t>
+  </si>
+  <si>
+    <t>TSTFU1117D</t>
+  </si>
+  <si>
+    <t>TSTFU1118D</t>
+  </si>
+  <si>
+    <t>tstf13@emp.com</t>
+  </si>
+  <si>
+    <t>tstf14@emp.com</t>
+  </si>
+  <si>
+    <t>tstf15@emp.com</t>
+  </si>
+  <si>
+    <t>tstf16@emp.com</t>
+  </si>
+  <si>
+    <t>tstf17@emp.com</t>
+  </si>
+  <si>
+    <t>tstf18@emp.com</t>
+  </si>
+  <si>
+    <t>tstf19@emp.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -289,15 +376,9 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="7"/>
-      <color rgb="FF000000"/>
+      <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Arial"/>
-      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -326,26 +407,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="Normal 4" xfId="3" xr:uid="{D289E3F7-9B5B-4F1F-9C83-E3829F53D18D}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -361,9 +439,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -401,7 +479,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -507,7 +585,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -649,7 +727,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -657,23 +735,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.46484375" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.53125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.86328125" customWidth="1"/>
+    <col min="5" max="5" width="16.1328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" s="4" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -693,79 +771,202 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="5" t="s">
-        <v>8</v>
+      <c r="B2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="3"/>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="1:6" ht="14" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="1" t="s">
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="3"/>
-      <c r="C7" s="1"/>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F8" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{255E5F85-DDEE-4512-9376-858CF3D74751}"/>
-    <hyperlink ref="C4" r:id="rId2" xr:uid="{B29AA756-178C-4F58-B5F8-6794FBF4E121}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{1853D440-CEF5-42B8-9ADA-9F9F3AB0BE01}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{96E9551D-CA6A-4762-8C05-227EDC320770}"/>
+    <hyperlink ref="C11" r:id="rId3" xr:uid="{FE8478BC-1104-432F-87B6-234519EF1EAC}"/>
+    <hyperlink ref="C12" r:id="rId4" xr:uid="{AC10FD49-2C35-4782-9D48-D9BBB1E8CE0A}"/>
+    <hyperlink ref="C4" r:id="rId5" display="tstf12@emp.com" xr:uid="{47B45F01-3F1A-4FF5-BC81-3731D2BEA038}"/>
+    <hyperlink ref="C5" r:id="rId6" display="tstf12@emp.com" xr:uid="{03EAD13E-FD26-4174-86F1-2EA2EDB223EE}"/>
+    <hyperlink ref="C6" r:id="rId7" display="tstf12@emp.com" xr:uid="{7222494D-0996-4879-9B70-9CCDE4133F83}"/>
+    <hyperlink ref="C8" r:id="rId8" display="tstf12@emp.com" xr:uid="{0C3E4C0E-A889-44C9-AB6F-FB6C4E0D9A24}"/>
+    <hyperlink ref="C10" r:id="rId9" display="tstf12@emp.com" xr:uid="{972E6F3D-3812-406D-9423-CFAEE03526BE}"/>
+    <hyperlink ref="C7" r:id="rId10" display="tstf12@emp.com" xr:uid="{792AEE03-D70C-4BC9-8F84-F69489BF7017}"/>
+    <hyperlink ref="C9" r:id="rId11" display="tstf12@emp.com" xr:uid="{5BC4B59A-F35F-4D69-B2C1-1CAED55996DB}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <legacyDrawing r:id="rId3"/>
+  <legacyDrawing r:id="rId12"/>
 </worksheet>
 </file>
--- a/public/sample_uploads/fund_ratios/investors.xlsx
+++ b/public/sample_uploads/fund_ratios/investors.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0f10f76f200b1328/Desktop/ratios auto test/bulk files/fund 1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0f10f76f200b1328/Desktop/ratios auto test/bulk files/fund 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="61" documentId="13_ncr:1_{7BEEC299-B834-4AF4-9714-BDE0CFD030C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E9A8579B-A078-4B1A-81B2-69816545AF31}"/>
+  <xr:revisionPtr revIDLastSave="62" documentId="13_ncr:1_{7BEEC299-B834-4AF4-9714-BDE0CFD030C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D52801BD-E400-41A2-BEB6-2BF1DBEAB11F}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -202,7 +202,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>City</t>
   </si>
@@ -222,115 +222,52 @@
     <t>Category *</t>
   </si>
   <si>
-    <t>TSTF1</t>
-  </si>
-  <si>
-    <t>tstf11@emp.com</t>
-  </si>
-  <si>
-    <t>tstf12@emp.com</t>
+    <t>tstf21@emp.com</t>
+  </si>
+  <si>
+    <t>tstf22@emp.com</t>
   </si>
   <si>
     <t>LP</t>
   </si>
   <si>
-    <t>tstfportco11@emp.com</t>
-  </si>
-  <si>
-    <t>tstfportco12@emp.com</t>
+    <t>tstfportco21@emp.com</t>
+  </si>
+  <si>
+    <t>tstfportco22@emp.com</t>
   </si>
   <si>
     <t>Portfolio Company</t>
   </si>
   <si>
-    <t>TSTFU1111D</t>
-  </si>
-  <si>
-    <t>TSTFU1212D</t>
-  </si>
-  <si>
-    <t>TSTFP1111D</t>
-  </si>
-  <si>
-    <t>TSTFP1212D</t>
-  </si>
-  <si>
-    <t>Fintech, Deal lead 1</t>
+    <t>FMCG</t>
+  </si>
+  <si>
+    <t>TSTFU2121D</t>
+  </si>
+  <si>
+    <t>TSTFU2222D</t>
+  </si>
+  <si>
+    <t>TSTFP2121D</t>
+  </si>
+  <si>
+    <t>TSTFP2222D</t>
   </si>
   <si>
     <t>Fintech, Deal lead 2</t>
   </si>
   <si>
-    <t>TSTF2</t>
-  </si>
-  <si>
-    <t>TSTF1 Port Co 1</t>
-  </si>
-  <si>
-    <t>TSTF1 Port Co 2</t>
-  </si>
-  <si>
-    <t>TSTF7</t>
-  </si>
-  <si>
-    <t>TSTF8</t>
-  </si>
-  <si>
-    <t>TSTF9</t>
-  </si>
-  <si>
-    <t>TSTF10</t>
-  </si>
-  <si>
-    <t>TSTF11</t>
-  </si>
-  <si>
-    <t>TSTF12</t>
-  </si>
-  <si>
-    <t>TSTF13</t>
-  </si>
-  <si>
-    <t>TSTFU1112D</t>
-  </si>
-  <si>
-    <t>TSTFU1113D</t>
-  </si>
-  <si>
-    <t>TSTFU1114D</t>
-  </si>
-  <si>
-    <t>TSTFU1115D</t>
-  </si>
-  <si>
-    <t>TSTFU1116D</t>
-  </si>
-  <si>
-    <t>TSTFU1117D</t>
-  </si>
-  <si>
-    <t>TSTFU1118D</t>
-  </si>
-  <si>
-    <t>tstf13@emp.com</t>
-  </si>
-  <si>
-    <t>tstf14@emp.com</t>
-  </si>
-  <si>
-    <t>tstf15@emp.com</t>
-  </si>
-  <si>
-    <t>tstf16@emp.com</t>
-  </si>
-  <si>
-    <t>tstf17@emp.com</t>
-  </si>
-  <si>
-    <t>tstf18@emp.com</t>
-  </si>
-  <si>
-    <t>tstf19@emp.com</t>
+    <t>TSTF3</t>
+  </si>
+  <si>
+    <t>TSTF4</t>
+  </si>
+  <si>
+    <t>TSTF2 Port Co 3</t>
+  </si>
+  <si>
+    <t>TSTF2 Port Co 4</t>
   </si>
 </sst>
 </file>
@@ -412,13 +349,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -735,10 +671,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.46484375" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -773,17 +709,17 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F2" s="3"/>
     </row>
@@ -795,178 +731,59 @@
         <v>14</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="5"/>
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
       <c r="E4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="3"/>
+        <v>11</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="5"/>
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
       <c r="E5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="D12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{1853D440-CEF5-42B8-9ADA-9F9F3AB0BE01}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{96E9551D-CA6A-4762-8C05-227EDC320770}"/>
-    <hyperlink ref="C11" r:id="rId3" xr:uid="{FE8478BC-1104-432F-87B6-234519EF1EAC}"/>
-    <hyperlink ref="C12" r:id="rId4" xr:uid="{AC10FD49-2C35-4782-9D48-D9BBB1E8CE0A}"/>
-    <hyperlink ref="C4" r:id="rId5" display="tstf12@emp.com" xr:uid="{47B45F01-3F1A-4FF5-BC81-3731D2BEA038}"/>
-    <hyperlink ref="C5" r:id="rId6" display="tstf12@emp.com" xr:uid="{03EAD13E-FD26-4174-86F1-2EA2EDB223EE}"/>
-    <hyperlink ref="C6" r:id="rId7" display="tstf12@emp.com" xr:uid="{7222494D-0996-4879-9B70-9CCDE4133F83}"/>
-    <hyperlink ref="C8" r:id="rId8" display="tstf12@emp.com" xr:uid="{0C3E4C0E-A889-44C9-AB6F-FB6C4E0D9A24}"/>
-    <hyperlink ref="C10" r:id="rId9" display="tstf12@emp.com" xr:uid="{972E6F3D-3812-406D-9423-CFAEE03526BE}"/>
-    <hyperlink ref="C7" r:id="rId10" display="tstf12@emp.com" xr:uid="{792AEE03-D70C-4BC9-8F84-F69489BF7017}"/>
-    <hyperlink ref="C9" r:id="rId11" display="tstf12@emp.com" xr:uid="{5BC4B59A-F35F-4D69-B2C1-1CAED55996DB}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{D00A33BE-3208-44CF-9197-662CDC9841EF}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{396A4AFC-2D13-456C-A1F7-D0D014839625}"/>
+    <hyperlink ref="C4:C5" r:id="rId3" display="tstfportco12@emp.com" xr:uid="{0A48378C-A023-45D7-8A19-C56DE81A9D2D}"/>
+    <hyperlink ref="C4" r:id="rId4" xr:uid="{54E9C33C-F062-4D73-A377-2B91E8C04D6B}"/>
+    <hyperlink ref="C5" r:id="rId5" xr:uid="{8EE7B671-3AC4-41FF-926E-C40A9CD2EBAF}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <legacyDrawing r:id="rId12"/>
+  <legacyDrawing r:id="rId6"/>
 </worksheet>
 </file>